--- a/WCMC.Stat.tTest/inst/www/template.xlsx
+++ b/WCMC.Stat.tTest/inst/www/template.xlsx
@@ -506,7 +506,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF25" sqref="AF25"/>
+      <selection sqref="A1:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -591,43 +591,43 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">RAND()</f>
-        <v>0.5752568091555107</v>
+        <v>0.74976577787659315</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:K3" ca="1" si="0">RAND()</f>
-        <v>0.23005686739706366</v>
+        <v>0.77158665042544661</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24238285730353282</v>
+        <v>0.74201524768690763</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17593126524127622</v>
+        <v>3.9245833851047074E-2</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73616170307101603</v>
+        <v>0.68646608434293199</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81697804013115471</v>
+        <v>0.22118126795171411</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68244740604709409</v>
+        <v>0.33001774996929056</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21302580259293236</v>
+        <v>0.2033851746469244</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38079122823090705</v>
+        <v>0.7183896823815612</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28197991958097979</v>
+        <v>0.36127946376891584</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -636,43 +636,43 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:K22" ca="1" si="1">RAND()</f>
-        <v>0.47456002785121854</v>
+        <v>0.8362761696663279</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56256201118262295</v>
+        <v>0.96130335751322959</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68246545574024065</v>
+        <v>2.3792222549479436E-2</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56449288540152598</v>
+        <v>0.36708236357787638</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80552407441880047</v>
+        <v>0.49233784506014766</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54960775916128402</v>
+        <v>0.61008720651134674</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41430434968475927</v>
+        <v>0.24423244477279282</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56475027770792763</v>
+        <v>0.14738228450922586</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23357337363229724</v>
+        <v>0.40061584525998695</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76345581394757112</v>
+        <v>0.31846781629115595</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -681,43 +681,43 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70731085691946072</v>
+        <v>0.5721252255476128</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77375061459022609</v>
+        <v>0.82964021916382391</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12023867642877772</v>
+        <v>0.45782051493398135</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50384111424645395</v>
+        <v>0.38121570801474047</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4657193159261942</v>
+        <v>0.21907293935061989</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5149296362380427E-2</v>
+        <v>0.57606576324851855</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35517635859809227</v>
+        <v>0.6149196222672203</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24674244169353543</v>
+        <v>0.61851858628211198</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.910637602540004E-2</v>
+        <v>0.68705720350493271</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11615935608021422</v>
+        <v>0.40829104081987899</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -726,43 +726,43 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13332766942816621</v>
+        <v>0.50143306304438529</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34329349838978152</v>
+        <v>0.72213172329611419</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79922458303909172</v>
+        <v>8.5589123724195804E-2</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59809220427657683</v>
+        <v>0.77961690026850738</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39867229081370192</v>
+        <v>6.5764580327095645E-3</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83962381598525482</v>
+        <v>0.89416714642679862</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91422937940717053</v>
+        <v>0.54969624927441529</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3390059563442922</v>
+        <v>0.77099325805379604</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81045541374597374</v>
+        <v>0.29477029654867237</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13005853727715688</v>
+        <v>7.2086180430630753E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -771,43 +771,43 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96006324467359805</v>
+        <v>9.3458734041667491E-2</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4058636088668347</v>
+        <v>0.147158290151717</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83882431147263636</v>
+        <v>0.67760254485271132</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21390818626698826</v>
+        <v>0.14554785564392503</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78923043722090414</v>
+        <v>0.81850450284055387</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28174763979246209</v>
+        <v>5.3580925591623974E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22391553449317381</v>
+        <v>0.74311253852017101</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6357963455394207E-2</v>
+        <v>0.71529516272102978</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73333869623342807</v>
+        <v>0.51080556493517026</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17302018115410744</v>
+        <v>6.5475662917418798E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -816,43 +816,43 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92334876362376139</v>
+        <v>0.75786441478328048</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7555675730730957E-2</v>
+        <v>0.31280052790146096</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34517811034576118</v>
+        <v>0.37420657941827751</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92070917986914469</v>
+        <v>0.62703416617080598</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86014278153505563</v>
+        <v>0.5155224349473625</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74614971457801316</v>
+        <v>0.56871793679814941</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54731290903534524</v>
+        <v>0.95962105845519496</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8490640458747214</v>
+        <v>0.49117611304618081</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40423056895321408</v>
+        <v>0.57438476297673424</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73310255383600698</v>
+        <v>0.12859712161081582</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -861,43 +861,43 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68380149803580537</v>
+        <v>0.47148356405875702</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71213949870200344</v>
+        <v>0.34208419688272496</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1880516061851093</v>
+        <v>0.58437465512128972</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.62418177167133E-2</v>
+        <v>0.23163823714308107</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40137514779118488</v>
+        <v>0.8099903059770579</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76374195580836013</v>
+        <v>2.1316809437645912E-2</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10899764433030767</v>
+        <v>0.11605538717408481</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70546268193641704</v>
+        <v>0.46016965051227643</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15146393691203486</v>
+        <v>0.34162664284130706</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4808751284270244</v>
+        <v>0.46167228699278007</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -906,43 +906,43 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79259414352538515</v>
+        <v>0.96788206615014927</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96178985191530819</v>
+        <v>0.57082030361164993</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49854739133000325</v>
+        <v>0.66169294549792101</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69717662151643167</v>
+        <v>1.5961258023834746E-2</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1632715094375086E-2</v>
+        <v>0.74808119743181822</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31806514698608834</v>
+        <v>4.7158916383148286E-2</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54594254959845157</v>
+        <v>0.25940718980822708</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64812999145778571</v>
+        <v>0.44928821385891704</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55535817931518194</v>
+        <v>0.18838703593773398</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59708470844353956</v>
+        <v>0.31122769193231825</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -951,43 +951,43 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81174905126069541</v>
+        <v>0.81205766947523905</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85301563731045715</v>
+        <v>0.11702320594477778</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40485757663831867</v>
+        <v>0.74429455918652121</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22277599228216249</v>
+        <v>0.49748757568883317</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68932206399470453</v>
+        <v>0.66544149017242682</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48594511631549497</v>
+        <v>0.60820963913429749</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78742717771662429</v>
+        <v>0.47318123679311264</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10495733637722116</v>
+        <v>0.60454675723118423</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21170545888283876</v>
+        <v>0.86827091498923925</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40000488975757065</v>
+        <v>0.37123747900104964</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -996,43 +996,43 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73417915726199523</v>
+        <v>0.79698552220974261</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86818475497202441</v>
+        <v>0.12637841081984102</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71855524987421782</v>
+        <v>0.20317238459206588</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85694601269269077</v>
+        <v>0.3973953143553417</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52991807520017331</v>
+        <v>0.13068529347599667</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40920809996902585</v>
+        <v>0.24971814813774718</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19619637052555217</v>
+        <v>0.15918065377659141</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57827550558555296</v>
+        <v>0.85264930711118936</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12442896806894799</v>
+        <v>0.38467952809283368</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6468824863707403E-2</v>
+        <v>7.3259280426801743E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1041,43 +1041,43 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63623073858894352</v>
+        <v>0.9530380349543659</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47933797230901443</v>
+        <v>0.86963270937034809</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94193250940219608</v>
+        <v>0.82986875832984219</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37807268044583331</v>
+        <v>0.41459386019398936</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31952633120473095</v>
+        <v>0.65115840053983765</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61140545259205314</v>
+        <v>0.31371586459834055</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1297037298098439</v>
+        <v>0.51412526978380346</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13662054183547345</v>
+        <v>0.25514258194902373</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98802674040750016</v>
+        <v>0.6658233890978843</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1240891700064832E-2</v>
+        <v>0.92172473113792075</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1086,43 +1086,43 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55088638921450428</v>
+        <v>0.99760999835782194</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68579098361799895</v>
+        <v>0.64735555978531445</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50300313361595106</v>
+        <v>0.29914251071563092</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66216090145995621</v>
+        <v>0.97128769527405945</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89456973203705326</v>
+        <v>0.47335011200333565</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34823568333312249</v>
+        <v>0.61803906312814916</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6142648836510554E-2</v>
+        <v>0.88992252553394657</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6489313262748484</v>
+        <v>0.1552742380942943</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69278375494156597</v>
+        <v>0.85089041788193764</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22165512534425624</v>
+        <v>0.95301285770186739</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1131,43 +1131,43 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8831873434287526</v>
+        <v>0.77393150317521797</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3944642127437562</v>
+        <v>0.15952951841340268</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73095133508770305</v>
+        <v>0.33086813861172448</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73720113026823664</v>
+        <v>0.80327752691674947</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19194824627256013</v>
+        <v>0.86562823904247166</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80884372074051247</v>
+        <v>0.55932911114675721</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37574360766500148</v>
+        <v>0.59477916382557106</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5834721378154516</v>
+        <v>6.9768832377701595E-2</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23789082092867808</v>
+        <v>0.16691292646464628</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33004371300431834</v>
+        <v>0.71776390037989035</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1176,43 +1176,43 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0790908059391691E-2</v>
+        <v>0.17394592269160558</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23830970678874208</v>
+        <v>0.91435425268713</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94510856506603991</v>
+        <v>0.21431679176714979</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20416341198284771</v>
+        <v>0.51438546708749178</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0548424584901053E-2</v>
+        <v>0.45649276509269787</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50837458251160017</v>
+        <v>0.17007023708991509</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83261248811867072</v>
+        <v>0.72035130872076469</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44239152284835281</v>
+        <v>0.21331618416562903</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70000856445494586</v>
+        <v>0.86739056933783709</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91578900898780613</v>
+        <v>5.4886770917846106E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1221,43 +1221,43 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32006062704628591</v>
+        <v>0.53157698850488544</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50164506463020408</v>
+        <v>0.16267706186760877</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67051673084028085</v>
+        <v>0.55088286306798073</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26737690569550832</v>
+        <v>0.28634571214224325</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93876688126259733</v>
+        <v>0.7764632807494547</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47995769267968036</v>
+        <v>0.76566091308160666</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24349566934920397</v>
+        <v>0.69519482939916821</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8955625589637729</v>
+        <v>2.1558372504629553E-2</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52903169704628661</v>
+        <v>0.89235764953399832</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53873295581373892</v>
+        <v>0.67196195304409467</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1266,43 +1266,43 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79710131757906733</v>
+        <v>0.48614347752273201</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23938954944171043</v>
+        <v>0.29755345825972834</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78458017182566864</v>
+        <v>0.47631276405658296</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82373452879640563</v>
+        <v>0.56800829358752092</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55925213705954746</v>
+        <v>0.86981474683763871</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2791957993202945E-2</v>
+        <v>0.2619413706434025</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82324657788947786</v>
+        <v>0.17447925397263553</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88649476143789685</v>
+        <v>0.38068217644565161</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14130796660239842</v>
+        <v>0.3366854123868982</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89537572100899687</v>
+        <v>0.31274589020955812</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1311,43 +1311,43 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83083402150859398</v>
+        <v>0.88326853095710667</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19042758430561435</v>
+        <v>0.88183982678022466</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51649881056298563</v>
+        <v>0.42253156606467168</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88829815105308374</v>
+        <v>0.17503883176313562</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53565216102349522</v>
+        <v>0.37771421106466452</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2262581969024211</v>
+        <v>0.12294254245726555</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63352242516491564</v>
+        <v>0.98353923403482502</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93054365127259442</v>
+        <v>0.79712191076804451</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35293454679694691</v>
+        <v>6.9714291737842937E-2</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96807872334731282</v>
+        <v>0.76023485588990058</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1356,43 +1356,43 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97920552595779786</v>
+        <v>0.41527981661670677</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45169693799044508</v>
+        <v>0.31968078756516383</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27426161585934616</v>
+        <v>0.32939653924637913</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98578733438789345</v>
+        <v>0.27293622749687552</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70075825856354723</v>
+        <v>5.7747445597258862E-2</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64929039131162913</v>
+        <v>0.29296876537496297</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69656873642663253</v>
+        <v>0.39887623850641629</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34579087653692187</v>
+        <v>0.29943555087210239</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38270124838676567</v>
+        <v>0.16451294740112976</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5860096885647863</v>
+        <v>0.13179817514390868</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1401,43 +1401,43 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37702476893173742</v>
+        <v>0.94389598333918989</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30803852228695339</v>
+        <v>3.5034304318554033E-2</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88167322909116785</v>
+        <v>0.69347744178054482</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8624136581195954E-2</v>
+        <v>0.60065340665730049</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32741772039021633</v>
+        <v>8.6331373316179127E-2</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54923662760705017</v>
+        <v>0.59032900982944592</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24118028584792972</v>
+        <v>8.9434367876480847E-3</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67378032191820159</v>
+        <v>0.72070537848411242</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36452254287340269</v>
+        <v>0.71292123098552751</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20521924324228924</v>
+        <v>0.26862321872795625</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1446,43 +1446,43 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4355767906020036E-2</v>
+        <v>0.21687455440701531</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64823909385120859</v>
+        <v>0.18412781241112819</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15672113456959746</v>
+        <v>0.47330767910402349</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49155561746032583</v>
+        <v>0.66634778771679981</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85409445904342107</v>
+        <v>0.37548547925533982</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47313465474614314</v>
+        <v>0.13091344728129672</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35151538158113427</v>
+        <v>0.92550403402566228</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74115817926706773</v>
+        <v>0.5261321902535655</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11259949316525408</v>
+        <v>0.89354664762628555</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42609369545360964</v>
+        <v>0.54651227219070497</v>
       </c>
     </row>
   </sheetData>
